--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.909168</v>
+        <v>40.48836166666666</v>
       </c>
       <c r="H2">
-        <v>326.727504</v>
+        <v>121.465085</v>
       </c>
       <c r="I2">
-        <v>0.367340942703246</v>
+        <v>0.3143678758830477</v>
       </c>
       <c r="J2">
-        <v>0.3673409427032459</v>
+        <v>0.3147284417684877</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.352028</v>
+        <v>7.7589965</v>
       </c>
       <c r="N2">
-        <v>2.704056</v>
+        <v>15.517993</v>
       </c>
       <c r="O2">
-        <v>0.04713951580538032</v>
+        <v>0.1661753104840762</v>
       </c>
       <c r="P2">
-        <v>0.04081250644379757</v>
+        <v>0.1577583562381091</v>
       </c>
       <c r="Q2">
-        <v>147.248244592704</v>
+        <v>314.1490564624008</v>
       </c>
       <c r="R2">
-        <v>883.4894675562242</v>
+        <v>1884.894338774405</v>
       </c>
       <c r="S2">
-        <v>0.01731627417452297</v>
+        <v>0.05224017938108499</v>
       </c>
       <c r="T2">
-        <v>0.0149921045911469</v>
+        <v>0.04965104163477806</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.909168</v>
+        <v>40.48836166666666</v>
       </c>
       <c r="H3">
-        <v>326.727504</v>
+        <v>121.465085</v>
       </c>
       <c r="I3">
-        <v>0.367340942703246</v>
+        <v>0.3143678758830477</v>
       </c>
       <c r="J3">
-        <v>0.3673409427032459</v>
+        <v>0.3147284417684877</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>11.342881</v>
       </c>
       <c r="O3">
-        <v>0.1318261451631791</v>
+        <v>0.08097725747390697</v>
       </c>
       <c r="P3">
-        <v>0.1711988967328076</v>
+        <v>0.1153135113261411</v>
       </c>
       <c r="Q3">
-        <v>411.781244144336</v>
+        <v>153.0848894233205</v>
       </c>
       <c r="R3">
-        <v>3706.031197299024</v>
+        <v>1377.764004809885</v>
       </c>
       <c r="S3">
-        <v>0.04842514043717715</v>
+        <v>0.02545664842690678</v>
       </c>
       <c r="T3">
-        <v>0.06288836411558521</v>
+        <v>0.03629244173452927</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>108.909168</v>
+        <v>40.48836166666666</v>
       </c>
       <c r="H4">
-        <v>326.727504</v>
+        <v>121.465085</v>
       </c>
       <c r="I4">
-        <v>0.367340942703246</v>
+        <v>0.3143678758830477</v>
       </c>
       <c r="J4">
-        <v>0.3673409427032459</v>
+        <v>0.3147284417684877</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.8490023333333333</v>
+        <v>0.042209</v>
       </c>
       <c r="N4">
-        <v>2.547007</v>
+        <v>0.126627</v>
       </c>
       <c r="O4">
-        <v>0.0296011317154463</v>
+        <v>0.0009039949534997694</v>
       </c>
       <c r="P4">
-        <v>0.03844215489616246</v>
+        <v>0.001287309987532733</v>
       </c>
       <c r="Q4">
-        <v>92.46413775339201</v>
+        <v>1.708973257588333</v>
       </c>
       <c r="R4">
-        <v>832.177239780528</v>
+        <v>15.380759318295</v>
       </c>
       <c r="S4">
-        <v>0.010873707629435</v>
+        <v>0.000284186973340717</v>
       </c>
       <c r="T4">
-        <v>0.01412137741910052</v>
+        <v>0.0004051530664491884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>108.909168</v>
+        <v>40.48836166666666</v>
       </c>
       <c r="H5">
-        <v>326.727504</v>
+        <v>121.465085</v>
       </c>
       <c r="I5">
-        <v>0.367340942703246</v>
+        <v>0.3143678758830477</v>
       </c>
       <c r="J5">
-        <v>0.3673409427032459</v>
+        <v>0.3147284417684877</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.436643</v>
+        <v>33.9503155</v>
       </c>
       <c r="N5">
-        <v>36.873286</v>
+        <v>67.900631</v>
       </c>
       <c r="O5">
-        <v>0.6428080070062561</v>
+        <v>0.7271177682893459</v>
       </c>
       <c r="P5">
-        <v>0.5565310860718086</v>
+        <v>0.6902884886009675</v>
       </c>
       <c r="Q5">
-        <v>2007.919449843024</v>
+        <v>1374.592652661439</v>
       </c>
       <c r="R5">
-        <v>12047.51669905814</v>
+        <v>8247.555915968635</v>
       </c>
       <c r="S5">
-        <v>0.2361296992708729</v>
+        <v>0.2285824683339437</v>
       </c>
       <c r="T5">
-        <v>0.2044366538012795</v>
+        <v>0.217253420388107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>108.909168</v>
+        <v>40.48836166666666</v>
       </c>
       <c r="H6">
-        <v>326.727504</v>
+        <v>121.465085</v>
       </c>
       <c r="I6">
-        <v>0.367340942703246</v>
+        <v>0.3143678758830477</v>
       </c>
       <c r="J6">
-        <v>0.3673409427032459</v>
+        <v>0.3147284417684877</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.954666333333333</v>
+        <v>0.106203</v>
       </c>
       <c r="N6">
-        <v>11.863999</v>
+        <v>0.318609</v>
       </c>
       <c r="O6">
-        <v>0.1378825409867045</v>
+        <v>0.00227456172964382</v>
       </c>
       <c r="P6">
-        <v>0.1790641671757936</v>
+        <v>0.003239029178751897</v>
       </c>
       <c r="Q6">
-        <v>430.699420080944</v>
+        <v>4.299985474084999</v>
       </c>
       <c r="R6">
-        <v>3876.294780728496</v>
+        <v>38.69986926676499</v>
       </c>
       <c r="S6">
-        <v>0.05064990258837497</v>
+        <v>0.0007150491395129987</v>
       </c>
       <c r="T6">
-        <v>0.06577759997472765</v>
+        <v>0.001019414606271249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>108.909168</v>
+        <v>40.48836166666666</v>
       </c>
       <c r="H7">
-        <v>326.727504</v>
+        <v>121.465085</v>
       </c>
       <c r="I7">
-        <v>0.367340942703246</v>
+        <v>0.3143678758830477</v>
       </c>
       <c r="J7">
-        <v>0.3673409427032459</v>
+        <v>0.3147284417684877</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3081146666666667</v>
+        <v>1.052948</v>
       </c>
       <c r="N7">
-        <v>0.9243440000000001</v>
+        <v>3.158844</v>
       </c>
       <c r="O7">
-        <v>0.01074265932303386</v>
+        <v>0.02255110706952724</v>
       </c>
       <c r="P7">
-        <v>0.01395118867963001</v>
+        <v>0.03211330466849762</v>
       </c>
       <c r="Q7">
-        <v>33.556511995264</v>
+        <v>42.63213944019333</v>
       </c>
       <c r="R7">
-        <v>302.008607957376</v>
+        <v>383.6892549617399</v>
       </c>
       <c r="S7">
-        <v>0.003946218602863072</v>
+        <v>0.007089343628258459</v>
       </c>
       <c r="T7">
-        <v>0.005124842801406141</v>
+        <v>0.01010697033835296</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>1.189662333333333</v>
+        <v>0.4426515</v>
       </c>
       <c r="H8">
-        <v>3.568987</v>
+        <v>0.885303</v>
       </c>
       <c r="I8">
-        <v>0.004012625300977507</v>
+        <v>0.003436923750017009</v>
       </c>
       <c r="J8">
-        <v>0.004012625300977507</v>
+        <v>0.002293910498502244</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.352028</v>
+        <v>7.7589965</v>
       </c>
       <c r="N8">
-        <v>2.704056</v>
+        <v>15.517993</v>
       </c>
       <c r="O8">
-        <v>0.04713951580538032</v>
+        <v>0.1661753104840762</v>
       </c>
       <c r="P8">
-        <v>0.04081250644379757</v>
+        <v>0.1577583562381091</v>
       </c>
       <c r="Q8">
-        <v>1.608456785212</v>
+        <v>3.43453143921975</v>
       </c>
       <c r="R8">
-        <v>9.650740711272002</v>
+        <v>13.738125756879</v>
       </c>
       <c r="S8">
-        <v>0.0001891532137964982</v>
+        <v>0.000571131871269172</v>
       </c>
       <c r="T8">
-        <v>0.0001637652959526897</v>
+        <v>0.0003618835496010554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>1.189662333333333</v>
+        <v>0.4426515</v>
       </c>
       <c r="H9">
-        <v>3.568987</v>
+        <v>0.885303</v>
       </c>
       <c r="I9">
-        <v>0.004012625300977507</v>
+        <v>0.003436923750017009</v>
       </c>
       <c r="J9">
-        <v>0.004012625300977507</v>
+        <v>0.002293910498502244</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>11.342881</v>
       </c>
       <c r="O9">
-        <v>0.1318261451631791</v>
+        <v>0.08097725747390697</v>
       </c>
       <c r="P9">
-        <v>0.1711988967328076</v>
+        <v>0.1153135113261411</v>
       </c>
       <c r="Q9">
-        <v>4.498066092394112</v>
+        <v>1.6736477629905</v>
       </c>
       <c r="R9">
-        <v>40.482594831547</v>
+        <v>10.041886577943</v>
       </c>
       <c r="S9">
-        <v>0.0005289689254121061</v>
+        <v>0.0002783126594233132</v>
       </c>
       <c r="T9">
-        <v>0.0006869570245294995</v>
+        <v>0.0002645188742501926</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.4426515</v>
+      </c>
+      <c r="H10">
+        <v>0.885303</v>
+      </c>
+      <c r="I10">
+        <v>0.003436923750017009</v>
+      </c>
+      <c r="J10">
+        <v>0.002293910498502244</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>1.189662333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.568987</v>
-      </c>
-      <c r="I10">
-        <v>0.004012625300977507</v>
-      </c>
-      <c r="J10">
-        <v>0.004012625300977507</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>0.8490023333333333</v>
+        <v>0.042209</v>
       </c>
       <c r="N10">
-        <v>2.547007</v>
+        <v>0.126627</v>
       </c>
       <c r="O10">
-        <v>0.0296011317154463</v>
+        <v>0.0009039949534997694</v>
       </c>
       <c r="P10">
-        <v>0.03844215489616246</v>
+        <v>0.001287309987532733</v>
       </c>
       <c r="Q10">
-        <v>1.010026096878778</v>
+        <v>0.0186838771635</v>
       </c>
       <c r="R10">
-        <v>9.090234871909001</v>
+        <v>0.112103262981</v>
       </c>
       <c r="S10">
-        <v>0.0001187782500589675</v>
+        <v>3.106961725578879E-06</v>
       </c>
       <c r="T10">
-        <v>0.0001542539633604379</v>
+        <v>2.952973895228129E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>1.189662333333333</v>
+        <v>0.4426515</v>
       </c>
       <c r="H11">
-        <v>3.568987</v>
+        <v>0.885303</v>
       </c>
       <c r="I11">
-        <v>0.004012625300977507</v>
+        <v>0.003436923750017009</v>
       </c>
       <c r="J11">
-        <v>0.004012625300977507</v>
+        <v>0.002293910498502244</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.436643</v>
+        <v>33.9503155</v>
       </c>
       <c r="N11">
-        <v>36.873286</v>
+        <v>67.900631</v>
       </c>
       <c r="O11">
-        <v>0.6428080070062561</v>
+        <v>0.7271177682893459</v>
       </c>
       <c r="P11">
-        <v>0.5565310860718086</v>
+        <v>0.6902884886009675</v>
       </c>
       <c r="Q11">
-        <v>21.93337973021367</v>
+        <v>15.02815808154825</v>
       </c>
       <c r="R11">
-        <v>131.600278381282</v>
+        <v>60.112632326193</v>
       </c>
       <c r="S11">
-        <v>0.00257934767258423</v>
+        <v>0.002499048326893017</v>
       </c>
       <c r="T11">
-        <v>0.00223315071675223</v>
+        <v>0.001583460010997006</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>1.189662333333333</v>
+        <v>0.4426515</v>
       </c>
       <c r="H12">
-        <v>3.568987</v>
+        <v>0.885303</v>
       </c>
       <c r="I12">
-        <v>0.004012625300977507</v>
+        <v>0.003436923750017009</v>
       </c>
       <c r="J12">
-        <v>0.004012625300977507</v>
+        <v>0.002293910498502244</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>3.954666333333333</v>
+        <v>0.106203</v>
       </c>
       <c r="N12">
-        <v>11.863999</v>
+        <v>0.318609</v>
       </c>
       <c r="O12">
-        <v>0.1378825409867045</v>
+        <v>0.00227456172964382</v>
       </c>
       <c r="P12">
-        <v>0.1790641671757936</v>
+        <v>0.003239029178751897</v>
       </c>
       <c r="Q12">
-        <v>4.704717577668111</v>
+        <v>0.0470109172545</v>
       </c>
       <c r="R12">
-        <v>42.342458199013</v>
+        <v>0.2820655035269999</v>
       </c>
       <c r="S12">
-        <v>0.0005532709725263185</v>
+        <v>7.817495229492612E-06</v>
       </c>
       <c r="T12">
-        <v>0.0007185174077080556</v>
+        <v>7.43004303809408E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>1.189662333333333</v>
+        <v>0.4426515</v>
       </c>
       <c r="H13">
-        <v>3.568987</v>
+        <v>0.885303</v>
       </c>
       <c r="I13">
-        <v>0.004012625300977507</v>
+        <v>0.003436923750017009</v>
       </c>
       <c r="J13">
-        <v>0.004012625300977507</v>
+        <v>0.002293910498502244</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3081146666666667</v>
+        <v>1.052948</v>
       </c>
       <c r="N13">
-        <v>0.9243440000000001</v>
+        <v>3.158844</v>
       </c>
       <c r="O13">
-        <v>0.01074265932303386</v>
+        <v>0.02255110706952724</v>
       </c>
       <c r="P13">
-        <v>0.01395118867963001</v>
+        <v>0.03211330466849762</v>
       </c>
       <c r="Q13">
-        <v>0.3665524132808889</v>
+        <v>0.4660890116219999</v>
       </c>
       <c r="R13">
-        <v>3.298971719528001</v>
+        <v>2.796534069732</v>
       </c>
       <c r="S13">
-        <v>4.310626659938756E-05</v>
+        <v>7.750643547643463E-05</v>
       </c>
       <c r="T13">
-        <v>5.598089267459437E-05</v>
+        <v>7.366504672066783E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>186.3809663333333</v>
+        <v>16.64069066666667</v>
       </c>
       <c r="H14">
-        <v>559.1428989999999</v>
+        <v>49.922072</v>
       </c>
       <c r="I14">
-        <v>0.6286464319957765</v>
+        <v>0.1292049952817353</v>
       </c>
       <c r="J14">
-        <v>0.6286464319957765</v>
+        <v>0.1293531876293031</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.352028</v>
+        <v>7.7589965</v>
       </c>
       <c r="N14">
-        <v>2.704056</v>
+        <v>15.517993</v>
       </c>
       <c r="O14">
-        <v>0.04713951580538032</v>
+        <v>0.1661753104840762</v>
       </c>
       <c r="P14">
-        <v>0.04081250644379757</v>
+        <v>0.1577583562381091</v>
       </c>
       <c r="Q14">
-        <v>251.992285149724</v>
+        <v>129.1150606402493</v>
       </c>
       <c r="R14">
-        <v>1511.953710898344</v>
+        <v>774.690363841496</v>
       </c>
       <c r="S14">
-        <v>0.02963408841706085</v>
+        <v>0.02147068020703597</v>
       </c>
       <c r="T14">
-        <v>0.02565663655669798</v>
+        <v>0.02040654625455857</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>186.3809663333333</v>
+        <v>16.64069066666667</v>
       </c>
       <c r="H15">
-        <v>559.1428989999999</v>
+        <v>49.922072</v>
       </c>
       <c r="I15">
-        <v>0.6286464319957765</v>
+        <v>0.1292049952817353</v>
       </c>
       <c r="J15">
-        <v>0.6286464319957765</v>
+        <v>0.1293531876293031</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>11.342881</v>
       </c>
       <c r="O15">
-        <v>0.1318261451631791</v>
+        <v>0.08097725747390697</v>
       </c>
       <c r="P15">
-        <v>0.1711988967328076</v>
+        <v>0.1153135113261411</v>
       </c>
       <c r="Q15">
-        <v>704.6990405946686</v>
+        <v>62.91779132993689</v>
       </c>
       <c r="R15">
-        <v>6342.291365352018</v>
+        <v>566.260121969432</v>
       </c>
       <c r="S15">
-        <v>0.08287203580058983</v>
+        <v>0.01046266616984401</v>
       </c>
       <c r="T15">
-        <v>0.1076235755926929</v>
+        <v>0.01491617026676411</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>186.3809663333333</v>
+        <v>16.64069066666667</v>
       </c>
       <c r="H16">
-        <v>559.1428989999999</v>
+        <v>49.922072</v>
       </c>
       <c r="I16">
-        <v>0.6286464319957765</v>
+        <v>0.1292049952817353</v>
       </c>
       <c r="J16">
-        <v>0.6286464319957765</v>
+        <v>0.1293531876293031</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.8490023333333333</v>
+        <v>0.042209</v>
       </c>
       <c r="N16">
-        <v>2.547007</v>
+        <v>0.126627</v>
       </c>
       <c r="O16">
-        <v>0.0296011317154463</v>
+        <v>0.0009039949534997694</v>
       </c>
       <c r="P16">
-        <v>0.03844215489616246</v>
+        <v>0.001287309987532733</v>
       </c>
       <c r="Q16">
-        <v>158.2378753059214</v>
+        <v>0.7023869123493334</v>
       </c>
       <c r="R16">
-        <v>1424.140877753293</v>
+        <v>6.321482211144</v>
       </c>
       <c r="S16">
-        <v>0.01860864583595234</v>
+        <v>0.0001168006637016502</v>
       </c>
       <c r="T16">
-        <v>0.0241665235137015</v>
+        <v>0.0001665176503543975</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>186.3809663333333</v>
+        <v>16.64069066666667</v>
       </c>
       <c r="H17">
-        <v>559.1428989999999</v>
+        <v>49.922072</v>
       </c>
       <c r="I17">
-        <v>0.6286464319957765</v>
+        <v>0.1292049952817353</v>
       </c>
       <c r="J17">
-        <v>0.6286464319957765</v>
+        <v>0.1293531876293031</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.436643</v>
+        <v>33.9503155</v>
       </c>
       <c r="N17">
-        <v>36.873286</v>
+        <v>67.900631</v>
       </c>
       <c r="O17">
-        <v>0.6428080070062561</v>
+        <v>0.7271177682893459</v>
       </c>
       <c r="P17">
-        <v>0.5565310860718086</v>
+        <v>0.6902884886009675</v>
       </c>
       <c r="Q17">
-        <v>3436.239338282685</v>
+        <v>564.9566982712388</v>
       </c>
       <c r="R17">
-        <v>20617.43602969611</v>
+        <v>3389.740189627432</v>
       </c>
       <c r="S17">
-        <v>0.404098960062799</v>
+        <v>0.09394724782109083</v>
       </c>
       <c r="T17">
-        <v>0.3498612815537769</v>
+        <v>0.08929101638434901</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>186.3809663333333</v>
+        <v>16.64069066666667</v>
       </c>
       <c r="H18">
-        <v>559.1428989999999</v>
+        <v>49.922072</v>
       </c>
       <c r="I18">
-        <v>0.6286464319957765</v>
+        <v>0.1292049952817353</v>
       </c>
       <c r="J18">
-        <v>0.6286464319957765</v>
+        <v>0.1293531876293031</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>3.954666333333333</v>
+        <v>0.106203</v>
       </c>
       <c r="N18">
-        <v>11.863999</v>
+        <v>0.318609</v>
       </c>
       <c r="O18">
-        <v>0.1378825409867045</v>
+        <v>0.00227456172964382</v>
       </c>
       <c r="P18">
-        <v>0.1790641671757936</v>
+        <v>0.003239029178751897</v>
       </c>
       <c r="Q18">
-        <v>737.0745327325667</v>
+        <v>1.767291270872</v>
       </c>
       <c r="R18">
-        <v>6633.6707945931</v>
+        <v>15.905621437848</v>
       </c>
       <c r="S18">
-        <v>0.08667936742580318</v>
+        <v>0.0002938847375466455</v>
       </c>
       <c r="T18">
-        <v>0.1125680497933579</v>
+        <v>0.0004189787490958818</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>16.64069066666667</v>
+      </c>
+      <c r="H19">
+        <v>49.922072</v>
+      </c>
+      <c r="I19">
+        <v>0.1292049952817353</v>
+      </c>
+      <c r="J19">
+        <v>0.1293531876293031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.052948</v>
+      </c>
+      <c r="N19">
+        <v>3.158844</v>
+      </c>
+      <c r="O19">
+        <v>0.02255110706952724</v>
+      </c>
+      <c r="P19">
+        <v>0.03211330466849762</v>
+      </c>
+      <c r="Q19">
+        <v>17.52178195608533</v>
+      </c>
+      <c r="R19">
+        <v>157.696037604768</v>
+      </c>
+      <c r="S19">
+        <v>0.002913715682516174</v>
+      </c>
+      <c r="T19">
+        <v>0.004153958324181148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>71.221232</v>
+      </c>
+      <c r="H20">
+        <v>213.663696</v>
+      </c>
+      <c r="I20">
+        <v>0.5529902050852</v>
+      </c>
+      <c r="J20">
+        <v>0.5536244601037069</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.7589965</v>
+      </c>
+      <c r="N20">
+        <v>15.517993</v>
+      </c>
+      <c r="O20">
+        <v>0.1661753104840762</v>
+      </c>
+      <c r="P20">
+        <v>0.1577583562381091</v>
+      </c>
+      <c r="Q20">
+        <v>552.605289813688</v>
+      </c>
+      <c r="R20">
+        <v>3315.631738882129</v>
+      </c>
+      <c r="S20">
+        <v>0.09189331902468612</v>
+      </c>
+      <c r="T20">
+        <v>0.0873388847991714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>71.221232</v>
+      </c>
+      <c r="H21">
+        <v>213.663696</v>
+      </c>
+      <c r="I21">
+        <v>0.5529902050852</v>
+      </c>
+      <c r="J21">
+        <v>0.5536244601037069</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.780960333333333</v>
+      </c>
+      <c r="N21">
+        <v>11.342881</v>
+      </c>
+      <c r="O21">
+        <v>0.08097725747390697</v>
+      </c>
+      <c r="P21">
+        <v>0.1153135113261411</v>
+      </c>
+      <c r="Q21">
+        <v>269.2846530831306</v>
+      </c>
+      <c r="R21">
+        <v>2423.561877748176</v>
+      </c>
+      <c r="S21">
+        <v>0.04477963021773286</v>
+      </c>
+      <c r="T21">
+        <v>0.06384038045059758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>71.221232</v>
+      </c>
+      <c r="H22">
+        <v>213.663696</v>
+      </c>
+      <c r="I22">
+        <v>0.5529902050852</v>
+      </c>
+      <c r="J22">
+        <v>0.5536244601037069</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.042209</v>
+      </c>
+      <c r="N22">
+        <v>0.126627</v>
+      </c>
+      <c r="O22">
+        <v>0.0009039949534997694</v>
+      </c>
+      <c r="P22">
+        <v>0.001287309987532733</v>
+      </c>
+      <c r="Q22">
+        <v>3.006176981488</v>
+      </c>
+      <c r="R22">
+        <v>27.055592833392</v>
+      </c>
+      <c r="S22">
+        <v>0.0004999003547318233</v>
+      </c>
+      <c r="T22">
+        <v>0.0007126862968339189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>71.221232</v>
+      </c>
+      <c r="H23">
+        <v>213.663696</v>
+      </c>
+      <c r="I23">
+        <v>0.5529902050852</v>
+      </c>
+      <c r="J23">
+        <v>0.5536244601037069</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>33.9503155</v>
+      </c>
+      <c r="N23">
+        <v>67.900631</v>
+      </c>
+      <c r="O23">
+        <v>0.7271177682893459</v>
+      </c>
+      <c r="P23">
+        <v>0.6902884886009675</v>
+      </c>
+      <c r="Q23">
+        <v>2417.983296698696</v>
+      </c>
+      <c r="R23">
+        <v>14507.89978019218</v>
+      </c>
+      <c r="S23">
+        <v>0.4020890038074184</v>
+      </c>
+      <c r="T23">
+        <v>0.3821605918175144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>186.3809663333333</v>
-      </c>
-      <c r="H19">
-        <v>559.1428989999999</v>
-      </c>
-      <c r="I19">
-        <v>0.6286464319957765</v>
-      </c>
-      <c r="J19">
-        <v>0.6286464319957765</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.3081146666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.9243440000000001</v>
-      </c>
-      <c r="O19">
-        <v>0.01074265932303386</v>
-      </c>
-      <c r="P19">
-        <v>0.01395118867963001</v>
-      </c>
-      <c r="Q19">
-        <v>57.42670931480622</v>
-      </c>
-      <c r="R19">
-        <v>516.8403838332559</v>
-      </c>
-      <c r="S19">
-        <v>0.006753334453571399</v>
-      </c>
-      <c r="T19">
-        <v>0.008770364985549275</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>71.221232</v>
+      </c>
+      <c r="H24">
+        <v>213.663696</v>
+      </c>
+      <c r="I24">
+        <v>0.5529902050852</v>
+      </c>
+      <c r="J24">
+        <v>0.5536244601037069</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.106203</v>
+      </c>
+      <c r="N24">
+        <v>0.318609</v>
+      </c>
+      <c r="O24">
+        <v>0.00227456172964382</v>
+      </c>
+      <c r="P24">
+        <v>0.003239029178751897</v>
+      </c>
+      <c r="Q24">
+        <v>7.563908502095999</v>
+      </c>
+      <c r="R24">
+        <v>68.075176518864</v>
+      </c>
+      <c r="S24">
+        <v>0.001257810357354683</v>
+      </c>
+      <c r="T24">
+        <v>0.001793205780346672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>71.221232</v>
+      </c>
+      <c r="H25">
+        <v>213.663696</v>
+      </c>
+      <c r="I25">
+        <v>0.5529902050852</v>
+      </c>
+      <c r="J25">
+        <v>0.5536244601037069</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.052948</v>
+      </c>
+      <c r="N25">
+        <v>3.158844</v>
+      </c>
+      <c r="O25">
+        <v>0.02255110706952724</v>
+      </c>
+      <c r="P25">
+        <v>0.03211330466849762</v>
+      </c>
+      <c r="Q25">
+        <v>74.99225379193599</v>
+      </c>
+      <c r="R25">
+        <v>674.930284127424</v>
+      </c>
+      <c r="S25">
+        <v>0.01247054132327617</v>
+      </c>
+      <c r="T25">
+        <v>0.01777871095924284</v>
       </c>
     </row>
   </sheetData>
